--- a/results/CONCILIACAO_01-05-2025_a_01-07-2025_ADIANTAMENTOS.xlsx
+++ b/results/CONCILIACAO_01-05-2025_a_01-07-2025_ADIANTAMENTOS.xlsx
@@ -17113,7 +17113,7 @@
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t>01/10/2025 09:50:21</t>
+          <t>01/10/2025 16:07:33</t>
         </is>
       </c>
     </row>
